--- a/OutputFiles/TC19_Canine_Filter_Diagnosis-RespCarciStg4_WebData.xlsx
+++ b/OutputFiles/TC19_Canine_Filter_Diagnosis-RespCarciStg4_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/OutputFiles/TC19_Canine_Filter_Diagnosis-RespCarciStg4_WebData.xlsx
+++ b/OutputFiles/TC19_Canine_Filter_Diagnosis-RespCarciStg4_WebData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Case ID</t>
   </si>
@@ -41,70 +41,91 @@
     <t>Neutered Status</t>
   </si>
   <si>
-    <t>NCATS-COP01CCB020031</t>
-  </si>
-  <si>
-    <t>NCATS-COP01</t>
-  </si>
-  <si>
-    <t>Transcriptomics</t>
-  </si>
-  <si>
-    <t>Bernese Mountain Dog</t>
-  </si>
-  <si>
-    <t>Lymphoma :: Stage 4</t>
+    <t>COTC007B0507</t>
+  </si>
+  <si>
+    <t>COTC007B</t>
+  </si>
+  <si>
+    <t>Clinical Trial</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>IVB</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Spayed female</t>
+  </si>
+  <si>
+    <t>COTC007B0608</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Castrated male</t>
+  </si>
+  <si>
+    <t>COTC007B0612</t>
+  </si>
+  <si>
+    <t>Mixed Breed</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>COTC007B1001</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Female Phenotype</t>
+  </si>
+  <si>
+    <t>COTC007B1002</t>
+  </si>
+  <si>
+    <t>Border Collie</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>COTC007B1602</t>
+  </si>
+  <si>
+    <t>Basset Hound</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>COTC007B1608</t>
+  </si>
+  <si>
+    <t>Irish Setter</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020035</t>
-  </si>
-  <si>
-    <t>Labrador Retriever</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020036</t>
-  </si>
-  <si>
-    <t>Black and Tan Coonhound</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030026</t>
-  </si>
-  <si>
-    <t>Golden Retriever</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB040184</t>
-  </si>
-  <si>
-    <t>Boxer</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -149,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -209,28 +230,25 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -238,22 +256,19 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -262,71 +277,114 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
